--- a/CSV/PokemonCSV.xlsx
+++ b/CSV/PokemonCSV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\CPSC 408 (Database Management)\FinalProject\PokemonDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\CPSC 408 (Database Management)\FinalProject\PokemonDB\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C34B0E0-BF78-4C68-9E9D-3DB21B65706E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F623D-46E8-43AF-87BD-053BBB62B6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{12C0549E-69F2-40F9-84C6-FCC3C5B5B337}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="723">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="720">
   <si>
     <t>BULBASAUR</t>
   </si>
@@ -2194,12 +2191,6 @@
   </si>
   <si>
     <t>VOLCANION</t>
-  </si>
-  <si>
-    <t>HasMega</t>
-  </si>
-  <si>
-    <t>HasGiganta</t>
   </si>
 </sst>
 </file>
@@ -2551,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BD79C9-C612-4D1F-BD9F-BB5564E5E985}">
-  <dimension ref="A1:C722"/>
+  <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2569,11 +2560,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C1" t="s">
-        <v>722</v>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2592,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2603,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -2625,10 +2616,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2636,10 +2627,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2658,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -2669,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2694,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2705,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2724,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2735,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2757,7 +2748,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2768,7 +2759,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2837,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2848,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2908,7 +2899,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2919,7 +2910,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3134,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3274,7 +3265,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3285,7 +3276,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -3310,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -3321,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -3439,7 +3430,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -3450,7 +3441,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -3593,10 +3584,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -3604,10 +3595,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -3651,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -3662,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -3824,7 +3815,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -3835,7 +3826,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -3956,7 +3947,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
@@ -3967,7 +3958,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -3989,7 +3980,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -4000,10 +3991,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" t="b">
         <v>1</v>
-      </c>
-      <c r="C131" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -4014,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -4121,7 +4112,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -4132,10 +4123,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" t="b">
         <v>1</v>
-      </c>
-      <c r="C143" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4146,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -4209,7 +4200,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -4220,7 +4211,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -4550,7 +4541,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -4561,7 +4552,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -4847,7 +4838,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="b">
         <v>0</v>
@@ -4858,7 +4849,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -4891,7 +4882,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -4902,7 +4893,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -4913,7 +4904,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -4924,7 +4915,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -5078,7 +5069,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -5089,7 +5080,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
@@ -5287,7 +5278,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
@@ -5298,7 +5289,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
@@ -5353,7 +5344,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="b">
         <v>0</v>
@@ -5364,7 +5355,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="b">
         <v>0</v>
@@ -5386,7 +5377,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
@@ -5397,7 +5388,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="b">
         <v>0</v>
@@ -5419,7 +5410,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
@@ -5430,7 +5421,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="b">
         <v>0</v>
@@ -5661,7 +5652,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="b">
         <v>0</v>
@@ -5672,7 +5663,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="b">
         <v>0</v>
@@ -5881,7 +5872,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="b">
         <v>0</v>
@@ -5903,7 +5894,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="b">
         <v>0</v>
@@ -5925,7 +5916,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="b">
         <v>0</v>
@@ -5936,7 +5927,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="b">
         <v>0</v>
@@ -5947,7 +5938,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="b">
         <v>0</v>
@@ -5958,7 +5949,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="b">
         <v>0</v>
@@ -5969,7 +5960,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="b">
         <v>0</v>
@@ -5980,7 +5971,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="b">
         <v>0</v>
@@ -6068,7 +6059,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="b">
         <v>0</v>
@@ -6079,7 +6070,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="b">
         <v>0</v>
@@ -6112,7 +6103,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="b">
         <v>0</v>
@@ -6123,7 +6114,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="b">
         <v>0</v>
@@ -6233,7 +6224,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="b">
         <v>0</v>
@@ -6244,7 +6235,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="b">
         <v>0</v>
@@ -6453,7 +6444,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="b">
         <v>0</v>
@@ -6464,7 +6455,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="b">
         <v>0</v>
@@ -6508,7 +6499,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="b">
         <v>0</v>
@@ -6519,7 +6510,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="b">
         <v>0</v>
@@ -6662,7 +6653,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="b">
         <v>0</v>
@@ -6673,7 +6664,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="b">
         <v>0</v>
@@ -6695,7 +6686,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="b">
         <v>0</v>
@@ -6706,7 +6697,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="b">
         <v>0</v>
@@ -6739,7 +6730,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="b">
         <v>0</v>
@@ -6761,7 +6752,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="b">
         <v>0</v>
@@ -6783,7 +6774,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="b">
         <v>0</v>
@@ -6794,7 +6785,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="b">
         <v>0</v>
@@ -7267,7 +7258,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="b">
         <v>0</v>
@@ -7278,7 +7269,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="b">
         <v>0</v>
@@ -7454,7 +7445,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="b">
         <v>0</v>
@@ -7465,7 +7456,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="b">
         <v>0</v>
@@ -7487,7 +7478,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="b">
         <v>0</v>
@@ -7498,7 +7489,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="b">
         <v>0</v>
@@ -7619,7 +7610,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="b">
         <v>0</v>
@@ -7630,7 +7621,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="b">
         <v>0</v>
@@ -7784,7 +7775,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="b">
         <v>0</v>
@@ -7795,7 +7786,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="b">
         <v>0</v>
@@ -8400,7 +8391,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="b">
         <v>0</v>
@@ -8411,7 +8402,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="b">
         <v>0</v>
@@ -8821,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="C569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -8832,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -10468,7 +10459,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="b">
         <v>0</v>
@@ -10479,7 +10470,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="b">
         <v>0</v>
@@ -10493,17 +10484,6 @@
         <v>0</v>
       </c>
       <c r="C721" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A722" t="s">
-        <v>720</v>
-      </c>
-      <c r="B722" t="b">
-        <v>0</v>
-      </c>
-      <c r="C722" t="b">
         <v>0</v>
       </c>
     </row>
